--- a/Timekeeping/2024/04-24/MITCHELL A 04-24.xlsx
+++ b/Timekeeping/2024/04-24/MITCHELL A 04-24.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\04-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8411948A-B13A-4333-BA99-96C300734A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B1E84-C31D-46BD-AA42-B25FA25C1F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18366" yWindow="3146" windowWidth="25299" windowHeight="11885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AJ$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AJ$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="106">
   <si>
     <t>NAME</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Al Mitchell</t>
   </si>
   <si>
-    <t>BP / IFC Dwgs</t>
-  </si>
-  <si>
     <t>Sooke Church Rd</t>
   </si>
   <si>
@@ -337,7 +334,13 @@
     <t>Occupancy documents + prep</t>
   </si>
   <si>
-    <t>Radon gas remediation</t>
+    <t>Inquiries from Site / Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtotal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radon gas remediation issues </t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +420,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="24"/>
       </patternFill>
     </fill>
   </fills>
@@ -773,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -932,6 +953,41 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1241,25 +1297,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GH85"/>
+  <dimension ref="A1:GH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="18" customWidth="1"/>
-    <col min="4" max="34" width="3.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.85546875" style="19" customWidth="1"/>
-    <col min="36" max="36" width="40.85546875" style="1" customWidth="1"/>
-    <col min="37" max="190" width="7.5703125" style="20" customWidth="1"/>
-    <col min="191" max="16384" width="7.5703125" style="20"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="18" customWidth="1"/>
+    <col min="4" max="34" width="3.3984375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.8984375" style="19" customWidth="1"/>
+    <col min="36" max="36" width="40.8984375" style="1" customWidth="1"/>
+    <col min="37" max="190" width="7.59765625" style="20" customWidth="1"/>
+    <col min="191" max="16384" width="7.59765625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:190" s="31" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1334,7 +1390,7 @@
       <c r="BP1" s="29"/>
       <c r="BQ1" s="29"/>
     </row>
-    <row r="2" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:190" s="31" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -1409,7 +1465,7 @@
       <c r="BP2" s="29"/>
       <c r="BQ2" s="29"/>
     </row>
-    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:190" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -1452,7 +1508,7 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="31"/>
       <c r="AJ3" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK3" s="29"/>
       <c r="AL3" s="29"/>
@@ -1492,7 +1548,7 @@
       <c r="BP3" s="29"/>
       <c r="BQ3" s="29"/>
     </row>
-    <row r="4" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:190" s="31" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -1567,7 +1623,7 @@
       <c r="BP4" s="29"/>
       <c r="BQ4" s="29"/>
     </row>
-    <row r="5" spans="1:190" s="24" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:190" s="24" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1821,7 @@
       <c r="GG5" s="20"/>
       <c r="GH5" s="20"/>
     </row>
-    <row r="6" spans="1:190" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:190" s="22" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2087,7 @@
       <c r="GG6" s="20"/>
       <c r="GH6" s="20"/>
     </row>
-    <row r="7" spans="1:190" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:190" ht="10.55" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40" t="s">
@@ -2168,7 +2224,7 @@
       <c r="BP7" s="29"/>
       <c r="BQ7" s="29"/>
     </row>
-    <row r="8" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:190" s="23" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
       <c r="B8" s="54"/>
       <c r="C8" s="44"/>
@@ -2220,7 +2276,7 @@
       <c r="AG8" s="56"/>
       <c r="AH8" s="56"/>
       <c r="AI8" s="57">
-        <f t="shared" ref="AI8:AI21" si="0">SUM(D8:AH8)</f>
+        <f t="shared" ref="AI8:AI22" si="0">SUM(D8:AH8)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="45"/>
@@ -2262,22 +2318,26 @@
       <c r="BP8" s="29"/>
       <c r="BQ8" s="29"/>
     </row>
-    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:190" ht="12.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="58">
+        <v>0.5</v>
+      </c>
       <c r="F9" s="58">
         <v>1</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58">
+        <v>0.5</v>
+      </c>
       <c r="H9" s="58"/>
       <c r="I9" s="56" t="s">
         <v>20</v>
@@ -2311,7 +2371,7 @@
       </c>
       <c r="Y9" s="58"/>
       <c r="Z9" s="58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA9" s="58">
         <v>1</v>
@@ -2329,10 +2389,10 @@
       <c r="AH9" s="58"/>
       <c r="AI9" s="57">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ9" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK9" s="29"/>
       <c r="AL9" s="29"/>
@@ -2372,51 +2432,45 @@
       <c r="BP9" s="29"/>
       <c r="BQ9" s="29"/>
     </row>
-    <row r="10" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:190" s="23" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="56">
         <v>1</v>
       </c>
       <c r="E10" s="56">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="56">
         <v>1</v>
       </c>
       <c r="G10" s="56">
-        <v>1</v>
-      </c>
-      <c r="H10" s="56">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="56"/>
       <c r="I10" s="56" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="56">
-        <v>1</v>
-      </c>
+      <c r="K10" s="56"/>
       <c r="L10" s="56">
         <v>1</v>
       </c>
-      <c r="M10" s="56">
-        <v>2</v>
-      </c>
+      <c r="M10" s="56"/>
       <c r="N10" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="56">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="56" t="s">
         <v>20</v>
@@ -2425,14 +2479,10 @@
         <v>20</v>
       </c>
       <c r="R10" s="56">
-        <v>2</v>
-      </c>
-      <c r="S10" s="56">
-        <v>1</v>
-      </c>
-      <c r="T10" s="56">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
       <c r="U10" s="56">
         <v>1</v>
       </c>
@@ -2444,13 +2494,13 @@
         <v>20</v>
       </c>
       <c r="Y10" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z10" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA10" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB10" s="56"/>
       <c r="AC10" s="56">
@@ -2462,19 +2512,15 @@
       <c r="AE10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AF10" s="56">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="56">
-        <v>1</v>
-      </c>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
       <c r="AH10" s="56"/>
       <c r="AI10" s="57">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AJ10" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="29"/>
       <c r="AL10" s="29"/>
@@ -2514,42 +2560,62 @@
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
     </row>
-    <row r="11" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:190" ht="12.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="E11" s="58">
+        <v>1</v>
+      </c>
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="H11" s="58">
+        <v>1</v>
+      </c>
       <c r="I11" s="56" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="58"/>
+      <c r="K11" s="58">
+        <v>1</v>
+      </c>
       <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="M11" s="58">
+        <v>1</v>
+      </c>
+      <c r="N11" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="58">
+        <v>1</v>
+      </c>
       <c r="P11" s="56" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
+      <c r="R11" s="58">
+        <v>1</v>
+      </c>
+      <c r="S11" s="58">
+        <v>1</v>
+      </c>
+      <c r="T11" s="58">
+        <v>1</v>
+      </c>
+      <c r="U11" s="58">
+        <v>1</v>
+      </c>
       <c r="V11" s="58"/>
       <c r="W11" s="56" t="s">
         <v>20</v>
@@ -2557,9 +2623,15 @@
       <c r="X11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+      <c r="Y11" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="Z11" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="AA11" s="58">
+        <v>0.5</v>
+      </c>
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
       <c r="AD11" s="56" t="s">
@@ -2568,15 +2640,19 @@
       <c r="AE11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
+      <c r="AF11" s="58">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="58">
+        <v>1</v>
+      </c>
       <c r="AH11" s="58"/>
       <c r="AI11" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ11" s="42" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AK11" s="29"/>
       <c r="AL11" s="29"/>
@@ -2616,15 +2692,15 @@
       <c r="BP11" s="29"/>
       <c r="BQ11" s="29"/>
     </row>
-    <row r="12" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:190" s="23" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="56">
         <v>1</v>
@@ -2680,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK12" s="29"/>
       <c r="AL12" s="29"/>
@@ -2720,15 +2796,15 @@
       <c r="BP12" s="29"/>
       <c r="BQ12" s="29"/>
     </row>
-    <row r="13" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:190" ht="12.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="58">
         <v>1</v>
@@ -2754,7 +2830,9 @@
       <c r="Q13" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="58"/>
+      <c r="R13" s="58">
+        <v>0.5</v>
+      </c>
       <c r="S13" s="58"/>
       <c r="T13" s="58"/>
       <c r="U13" s="58"/>
@@ -2766,7 +2844,9 @@
         <v>20</v>
       </c>
       <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
+      <c r="Z13" s="58">
+        <v>0.5</v>
+      </c>
       <c r="AA13" s="58"/>
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
@@ -2781,10 +2861,10 @@
       <c r="AH13" s="58"/>
       <c r="AI13" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK13" s="29"/>
       <c r="AL13" s="29"/>
@@ -2824,15 +2904,15 @@
       <c r="BP13" s="29"/>
       <c r="BQ13" s="29"/>
     </row>
-    <row r="14" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:190" s="23" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -2847,7 +2927,9 @@
       </c>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="56">
+        <v>1</v>
+      </c>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
       <c r="P14" s="56" t="s">
@@ -2859,9 +2941,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="56">
-        <v>1</v>
-      </c>
+      <c r="U14" s="56"/>
       <c r="V14" s="56"/>
       <c r="W14" s="56" t="s">
         <v>20</v>
@@ -2888,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK14" s="29"/>
       <c r="AL14" s="29"/>
@@ -2928,15 +3008,15 @@
       <c r="BP14" s="29"/>
       <c r="BQ14" s="29"/>
     </row>
-    <row r="15" spans="1:190" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:190" s="21" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
@@ -2984,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK15" s="29"/>
       <c r="AL15" s="29"/>
@@ -3145,15 +3225,15 @@
       <c r="GG15" s="20"/>
       <c r="GH15" s="20"/>
     </row>
-    <row r="16" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:190" s="23" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -3209,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="AJ16" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK16" s="29"/>
       <c r="AL16" s="29"/>
@@ -3249,15 +3329,15 @@
       <c r="BP16" s="29"/>
       <c r="BQ16" s="29"/>
     </row>
-    <row r="17" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:190" s="25" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -3313,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK17" s="29"/>
       <c r="AL17" s="29"/>
@@ -3474,15 +3554,15 @@
       <c r="GG17" s="23"/>
       <c r="GH17" s="23"/>
     </row>
-    <row r="18" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:190" s="25" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
@@ -3545,8 +3625,8 @@
         <f t="shared" ref="AI18" si="1">SUM(D18:AH18)</f>
         <v>5</v>
       </c>
-      <c r="AJ18" s="45" t="s">
-        <v>104</v>
+      <c r="AJ18" s="85" t="s">
+        <v>105</v>
       </c>
       <c r="AK18" s="29"/>
       <c r="AL18" s="29"/>
@@ -3703,72 +3783,111 @@
       <c r="GG18" s="23"/>
       <c r="GH18" s="23"/>
     </row>
-    <row r="19" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58">
+    <row r="19" spans="1:190" s="25" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84">
+        <f>SUM(D9:D18)</f>
         <v>3</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="57">
-        <f t="shared" ref="AI19:AI20" si="2">SUM(D19:AH19)</f>
+      <c r="E19" s="84">
+        <f t="shared" ref="E19:AI19" si="2">SUM(E9:E18)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="84">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="84">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AJ19" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="O19" s="84">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U19" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AA19" s="84">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AB19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84">
+        <f t="shared" si="2"/>
+        <v>50.5</v>
+      </c>
+      <c r="AJ19" s="45"/>
       <c r="AK19" s="29"/>
       <c r="AL19" s="29"/>
       <c r="AM19" s="29"/>
@@ -3924,91 +4043,71 @@
       <c r="GG19" s="23"/>
       <c r="GH19" s="23"/>
     </row>
-    <row r="20" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:190" s="25" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78">
+        <v>3</v>
+      </c>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="79">
+        <f t="shared" ref="AI20:AI21" si="3">SUM(D20:AH20)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="80" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56">
-        <v>1</v>
-      </c>
-      <c r="G20" s="56">
-        <v>1</v>
-      </c>
-      <c r="H20" s="56">
-        <v>1</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56">
-        <v>2</v>
-      </c>
-      <c r="N20" s="56">
-        <v>2</v>
-      </c>
-      <c r="O20" s="56">
-        <v>1</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="56">
-        <v>1</v>
-      </c>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56">
-        <v>2</v>
-      </c>
-      <c r="U20" s="56">
-        <v>1</v>
-      </c>
-      <c r="V20" s="56">
-        <v>1</v>
-      </c>
-      <c r="W20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="57">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AJ20" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AK20" s="29"/>
       <c r="AL20" s="29"/>
@@ -4165,62 +4264,92 @@
       <c r="GG20" s="23"/>
       <c r="GH20" s="23"/>
     </row>
-    <row r="21" spans="1:190" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="42"/>
+    <row r="21" spans="1:190" s="25" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78">
+        <v>1</v>
+      </c>
+      <c r="G21" s="78">
+        <v>1</v>
+      </c>
+      <c r="H21" s="78">
+        <v>1</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78">
+        <v>2</v>
+      </c>
+      <c r="N21" s="78">
+        <v>2</v>
+      </c>
+      <c r="O21" s="78">
+        <v>1</v>
+      </c>
+      <c r="P21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="78">
+        <v>1</v>
+      </c>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78">
+        <v>2</v>
+      </c>
+      <c r="U21" s="78">
+        <v>1</v>
+      </c>
+      <c r="V21" s="78">
+        <v>1</v>
+      </c>
+      <c r="W21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="79">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AJ21" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="AK21" s="29"/>
       <c r="AL21" s="29"/>
       <c r="AM21" s="29"/>
@@ -4237,7 +4366,7 @@
       <c r="AX21" s="29"/>
       <c r="AY21" s="29"/>
       <c r="AZ21" s="52"/>
-      <c r="BA21" s="29"/>
+      <c r="BA21" s="52"/>
       <c r="BB21" s="29"/>
       <c r="BC21" s="29"/>
       <c r="BD21" s="29"/>
@@ -4254,263 +4383,184 @@
       <c r="BO21" s="29"/>
       <c r="BP21" s="29"/>
       <c r="BQ21" s="29"/>
-      <c r="BR21" s="20"/>
-      <c r="BS21" s="20"/>
-      <c r="BT21" s="20"/>
-      <c r="BU21" s="20"/>
-      <c r="BV21" s="20"/>
-      <c r="BW21" s="20"/>
-      <c r="BX21" s="20"/>
-      <c r="BY21" s="20"/>
-      <c r="BZ21" s="20"/>
-      <c r="CA21" s="20"/>
-      <c r="CB21" s="20"/>
-      <c r="CC21" s="20"/>
-      <c r="CD21" s="20"/>
-      <c r="CE21" s="20"/>
-      <c r="CF21" s="20"/>
-      <c r="CG21" s="20"/>
-      <c r="CH21" s="20"/>
-      <c r="CI21" s="20"/>
-      <c r="CJ21" s="20"/>
-      <c r="CK21" s="20"/>
-      <c r="CL21" s="20"/>
-      <c r="CM21" s="20"/>
-      <c r="CN21" s="20"/>
-      <c r="CO21" s="20"/>
-      <c r="CP21" s="20"/>
-      <c r="CQ21" s="20"/>
-      <c r="CR21" s="20"/>
-      <c r="CS21" s="20"/>
-      <c r="CT21" s="20"/>
-      <c r="CU21" s="20"/>
-      <c r="CV21" s="20"/>
-      <c r="CW21" s="20"/>
-      <c r="CX21" s="20"/>
-      <c r="CY21" s="20"/>
-      <c r="CZ21" s="20"/>
-      <c r="DA21" s="20"/>
-      <c r="DB21" s="20"/>
-      <c r="DC21" s="20"/>
-      <c r="DD21" s="20"/>
-      <c r="DE21" s="20"/>
-      <c r="DF21" s="20"/>
-      <c r="DG21" s="20"/>
-      <c r="DH21" s="20"/>
-      <c r="DI21" s="20"/>
-      <c r="DJ21" s="20"/>
-      <c r="DK21" s="20"/>
-      <c r="DL21" s="20"/>
-      <c r="DM21" s="20"/>
-      <c r="DN21" s="20"/>
-      <c r="DO21" s="20"/>
-      <c r="DP21" s="20"/>
-      <c r="DQ21" s="20"/>
-      <c r="DR21" s="20"/>
-      <c r="DS21" s="20"/>
-      <c r="DT21" s="20"/>
-      <c r="DU21" s="20"/>
-      <c r="DV21" s="20"/>
-      <c r="DW21" s="20"/>
-      <c r="DX21" s="20"/>
-      <c r="DY21" s="20"/>
-      <c r="DZ21" s="20"/>
-      <c r="EA21" s="20"/>
-      <c r="EB21" s="20"/>
-      <c r="EC21" s="20"/>
-      <c r="ED21" s="20"/>
-      <c r="EE21" s="20"/>
-      <c r="EF21" s="20"/>
-      <c r="EG21" s="20"/>
-      <c r="EH21" s="20"/>
-      <c r="EI21" s="20"/>
-      <c r="EJ21" s="20"/>
-      <c r="EK21" s="20"/>
-      <c r="EL21" s="20"/>
-      <c r="EM21" s="20"/>
-      <c r="EN21" s="20"/>
-      <c r="EO21" s="20"/>
-      <c r="EP21" s="20"/>
-      <c r="EQ21" s="20"/>
-      <c r="ER21" s="20"/>
-      <c r="ES21" s="20"/>
-      <c r="ET21" s="20"/>
-      <c r="EU21" s="20"/>
-      <c r="EV21" s="20"/>
-      <c r="EW21" s="20"/>
-      <c r="EX21" s="20"/>
-      <c r="EY21" s="20"/>
-      <c r="EZ21" s="20"/>
-      <c r="FA21" s="20"/>
-      <c r="FB21" s="20"/>
-      <c r="FC21" s="20"/>
-      <c r="FD21" s="20"/>
-      <c r="FE21" s="20"/>
-      <c r="FF21" s="20"/>
-      <c r="FG21" s="20"/>
-      <c r="FH21" s="20"/>
-      <c r="FI21" s="20"/>
-      <c r="FJ21" s="20"/>
-      <c r="FK21" s="20"/>
-      <c r="FL21" s="20"/>
-      <c r="FM21" s="20"/>
-      <c r="FN21" s="20"/>
-      <c r="FO21" s="20"/>
-      <c r="FP21" s="20"/>
-      <c r="FQ21" s="20"/>
-      <c r="FR21" s="20"/>
-      <c r="FS21" s="20"/>
-      <c r="FT21" s="20"/>
-      <c r="FU21" s="20"/>
-      <c r="FV21" s="20"/>
-      <c r="FW21" s="20"/>
-      <c r="FX21" s="20"/>
-      <c r="FY21" s="20"/>
-      <c r="FZ21" s="20"/>
-      <c r="GA21" s="20"/>
-      <c r="GB21" s="20"/>
-      <c r="GC21" s="20"/>
-      <c r="GD21" s="20"/>
-      <c r="GE21" s="20"/>
-      <c r="GF21" s="20"/>
-      <c r="GG21" s="20"/>
-      <c r="GH21" s="20"/>
-    </row>
-    <row r="22" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="59">
-        <f t="shared" ref="D22:AE22" si="3">SUM(D8:D21)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="59">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F22" s="59">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G22" s="59">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H22" s="59">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I22" s="59">
-        <f t="shared" si="3"/>
+      <c r="BR21" s="23"/>
+      <c r="BS21" s="23"/>
+      <c r="BT21" s="23"/>
+      <c r="BU21" s="23"/>
+      <c r="BV21" s="23"/>
+      <c r="BW21" s="23"/>
+      <c r="BX21" s="23"/>
+      <c r="BY21" s="23"/>
+      <c r="BZ21" s="23"/>
+      <c r="CA21" s="23"/>
+      <c r="CB21" s="23"/>
+      <c r="CC21" s="23"/>
+      <c r="CD21" s="23"/>
+      <c r="CE21" s="23"/>
+      <c r="CF21" s="23"/>
+      <c r="CG21" s="23"/>
+      <c r="CH21" s="23"/>
+      <c r="CI21" s="23"/>
+      <c r="CJ21" s="23"/>
+      <c r="CK21" s="23"/>
+      <c r="CL21" s="23"/>
+      <c r="CM21" s="23"/>
+      <c r="CN21" s="23"/>
+      <c r="CO21" s="23"/>
+      <c r="CP21" s="23"/>
+      <c r="CQ21" s="23"/>
+      <c r="CR21" s="23"/>
+      <c r="CS21" s="23"/>
+      <c r="CT21" s="23"/>
+      <c r="CU21" s="23"/>
+      <c r="CV21" s="23"/>
+      <c r="CW21" s="23"/>
+      <c r="CX21" s="23"/>
+      <c r="CY21" s="23"/>
+      <c r="CZ21" s="23"/>
+      <c r="DA21" s="23"/>
+      <c r="DB21" s="23"/>
+      <c r="DC21" s="23"/>
+      <c r="DD21" s="23"/>
+      <c r="DE21" s="23"/>
+      <c r="DF21" s="23"/>
+      <c r="DG21" s="23"/>
+      <c r="DH21" s="23"/>
+      <c r="DI21" s="23"/>
+      <c r="DJ21" s="23"/>
+      <c r="DK21" s="23"/>
+      <c r="DL21" s="23"/>
+      <c r="DM21" s="23"/>
+      <c r="DN21" s="23"/>
+      <c r="DO21" s="23"/>
+      <c r="DP21" s="23"/>
+      <c r="DQ21" s="23"/>
+      <c r="DR21" s="23"/>
+      <c r="DS21" s="23"/>
+      <c r="DT21" s="23"/>
+      <c r="DU21" s="23"/>
+      <c r="DV21" s="23"/>
+      <c r="DW21" s="23"/>
+      <c r="DX21" s="23"/>
+      <c r="DY21" s="23"/>
+      <c r="DZ21" s="23"/>
+      <c r="EA21" s="23"/>
+      <c r="EB21" s="23"/>
+      <c r="EC21" s="23"/>
+      <c r="ED21" s="23"/>
+      <c r="EE21" s="23"/>
+      <c r="EF21" s="23"/>
+      <c r="EG21" s="23"/>
+      <c r="EH21" s="23"/>
+      <c r="EI21" s="23"/>
+      <c r="EJ21" s="23"/>
+      <c r="EK21" s="23"/>
+      <c r="EL21" s="23"/>
+      <c r="EM21" s="23"/>
+      <c r="EN21" s="23"/>
+      <c r="EO21" s="23"/>
+      <c r="EP21" s="23"/>
+      <c r="EQ21" s="23"/>
+      <c r="ER21" s="23"/>
+      <c r="ES21" s="23"/>
+      <c r="ET21" s="23"/>
+      <c r="EU21" s="23"/>
+      <c r="EV21" s="23"/>
+      <c r="EW21" s="23"/>
+      <c r="EX21" s="23"/>
+      <c r="EY21" s="23"/>
+      <c r="EZ21" s="23"/>
+      <c r="FA21" s="23"/>
+      <c r="FB21" s="23"/>
+      <c r="FC21" s="23"/>
+      <c r="FD21" s="23"/>
+      <c r="FE21" s="23"/>
+      <c r="FF21" s="23"/>
+      <c r="FG21" s="23"/>
+      <c r="FH21" s="23"/>
+      <c r="FI21" s="23"/>
+      <c r="FJ21" s="23"/>
+      <c r="FK21" s="23"/>
+      <c r="FL21" s="23"/>
+      <c r="FM21" s="23"/>
+      <c r="FN21" s="23"/>
+      <c r="FO21" s="23"/>
+      <c r="FP21" s="23"/>
+      <c r="FQ21" s="23"/>
+      <c r="FR21" s="23"/>
+      <c r="FS21" s="23"/>
+      <c r="FT21" s="23"/>
+      <c r="FU21" s="23"/>
+      <c r="FV21" s="23"/>
+      <c r="FW21" s="23"/>
+      <c r="FX21" s="23"/>
+      <c r="FY21" s="23"/>
+      <c r="FZ21" s="23"/>
+      <c r="GA21" s="23"/>
+      <c r="GB21" s="23"/>
+      <c r="GC21" s="23"/>
+      <c r="GD21" s="23"/>
+      <c r="GE21" s="23"/>
+      <c r="GF21" s="23"/>
+      <c r="GG21" s="23"/>
+      <c r="GH21" s="23"/>
+    </row>
+    <row r="22" spans="1:190" s="21" customFormat="1" ht="12.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="59">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="59">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="M22" s="59">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="59">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O22" s="59">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="P22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="59">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S22" s="59">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T22" s="59">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="U22" s="59">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="V22" s="59">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="59">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="59">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AA22" s="59">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AB22" s="59">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC22" s="59">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AD22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="59">
-        <f t="shared" ref="AF22:AH22" si="4">SUM(AF8:AF21)</f>
-        <v>1</v>
-      </c>
-      <c r="AG22" s="59">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AH22" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="57">
-        <f t="shared" ref="AI22" si="5">SUM(AI8:AI21)</f>
-        <v>67</v>
-      </c>
-      <c r="AJ22" s="46"/>
+      <c r="AJ22" s="42"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
       <c r="AM22" s="29"/>
@@ -4527,9 +4577,7 @@
       <c r="AX22" s="29"/>
       <c r="AY22" s="29"/>
       <c r="AZ22" s="52"/>
-      <c r="BA22" s="29" t="s">
-        <v>68</v>
-      </c>
+      <c r="BA22" s="29"/>
       <c r="BB22" s="29"/>
       <c r="BC22" s="29"/>
       <c r="BD22" s="29"/>
@@ -4668,46 +4716,139 @@
       <c r="GG22" s="20"/>
       <c r="GH22" s="20"/>
     </row>
-    <row r="23" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
+    <row r="23" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="59">
+        <f>SUM(D8:D22)</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="59">
+        <f>SUM(E8:E22)</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="59">
+        <f>SUM(F8:F22)</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="59">
+        <f>SUM(G8:G22)</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="59">
+        <f>SUM(H8:H22)</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="59">
+        <f>SUM(I8:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="59">
+        <f>SUM(J8:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="59">
+        <f>SUM(K8:K22)</f>
+        <v>4</v>
+      </c>
+      <c r="L23" s="59">
+        <f>SUM(L8:L22)</f>
+        <v>26</v>
+      </c>
+      <c r="M23" s="59">
+        <f>SUM(M8:M22)</f>
+        <v>6</v>
+      </c>
+      <c r="N23" s="59">
+        <f>SUM(N8:N22)</f>
+        <v>8</v>
+      </c>
+      <c r="O23" s="59">
+        <f>SUM(O8:O22)</f>
+        <v>4</v>
+      </c>
+      <c r="P23" s="59">
+        <f>SUM(P8:P22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="59">
+        <f>SUM(Q8:Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="59">
+        <f>SUM(R8:R22)</f>
+        <v>5</v>
+      </c>
+      <c r="S23" s="59">
+        <f>SUM(S8:S22)</f>
+        <v>4</v>
+      </c>
+      <c r="T23" s="59">
+        <f>SUM(T8:T22)</f>
+        <v>6</v>
+      </c>
+      <c r="U23" s="59">
+        <f>SUM(U8:U22)</f>
+        <v>5</v>
+      </c>
+      <c r="V23" s="59">
+        <f>SUM(V8:V22)</f>
+        <v>1</v>
+      </c>
+      <c r="W23" s="59">
+        <f>SUM(W8:W22)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="59">
+        <f>SUM(X8:X22)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="59">
+        <f>SUM(Y8:Y22)</f>
+        <v>2</v>
+      </c>
+      <c r="Z23" s="59">
+        <f>SUM(Z8:Z22)</f>
+        <v>6</v>
+      </c>
+      <c r="AA23" s="59">
+        <f>SUM(AA8:AA22)</f>
+        <v>8</v>
+      </c>
+      <c r="AB23" s="59">
+        <f>SUM(AB8:AB22)</f>
+        <v>2</v>
+      </c>
+      <c r="AC23" s="59">
+        <f>SUM(AC8:AC22)</f>
+        <v>3</v>
+      </c>
+      <c r="AD23" s="59">
+        <f>SUM(AD8:AD22)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="59">
+        <f>SUM(AE8:AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="59">
+        <f>SUM(AF8:AF22)</f>
+        <v>2</v>
+      </c>
+      <c r="AG23" s="59">
+        <f>SUM(AG8:AG22)</f>
+        <v>2</v>
+      </c>
+      <c r="AH23" s="59">
+        <f>SUM(AH8:AH22)</f>
+        <v>0</v>
+      </c>
       <c r="AI23" s="57">
-        <f>SUM(D23:AH23)</f>
-        <v>0</v>
+        <f>SUM(AI8:AI22)</f>
+        <v>118</v>
       </c>
       <c r="AJ23" s="46"/>
       <c r="AK23" s="29"/>
@@ -4726,7 +4867,9 @@
       <c r="AX23" s="29"/>
       <c r="AY23" s="29"/>
       <c r="AZ23" s="52"/>
-      <c r="BA23" s="29"/>
+      <c r="BA23" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="BB23" s="29"/>
       <c r="BC23" s="29"/>
       <c r="BD23" s="29"/>
@@ -4743,131 +4886,131 @@
       <c r="BO23" s="29"/>
       <c r="BP23" s="29"/>
       <c r="BQ23" s="29"/>
-      <c r="BR23" s="23"/>
-      <c r="BS23" s="23"/>
-      <c r="BT23" s="23"/>
-      <c r="BU23" s="23"/>
-      <c r="BV23" s="23"/>
-      <c r="BW23" s="23"/>
-      <c r="BX23" s="23"/>
-      <c r="BY23" s="23"/>
-      <c r="BZ23" s="23"/>
-      <c r="CA23" s="23"/>
-      <c r="CB23" s="23"/>
-      <c r="CC23" s="23"/>
-      <c r="CD23" s="23"/>
-      <c r="CE23" s="23"/>
-      <c r="CF23" s="23"/>
-      <c r="CG23" s="23"/>
-      <c r="CH23" s="23"/>
-      <c r="CI23" s="23"/>
-      <c r="CJ23" s="23"/>
-      <c r="CK23" s="23"/>
-      <c r="CL23" s="23"/>
-      <c r="CM23" s="23"/>
-      <c r="CN23" s="23"/>
-      <c r="CO23" s="23"/>
-      <c r="CP23" s="23"/>
-      <c r="CQ23" s="23"/>
-      <c r="CR23" s="23"/>
-      <c r="CS23" s="23"/>
-      <c r="CT23" s="23"/>
-      <c r="CU23" s="23"/>
-      <c r="CV23" s="23"/>
-      <c r="CW23" s="23"/>
-      <c r="CX23" s="23"/>
-      <c r="CY23" s="23"/>
-      <c r="CZ23" s="23"/>
-      <c r="DA23" s="23"/>
-      <c r="DB23" s="23"/>
-      <c r="DC23" s="23"/>
-      <c r="DD23" s="23"/>
-      <c r="DE23" s="23"/>
-      <c r="DF23" s="23"/>
-      <c r="DG23" s="23"/>
-      <c r="DH23" s="23"/>
-      <c r="DI23" s="23"/>
-      <c r="DJ23" s="23"/>
-      <c r="DK23" s="23"/>
-      <c r="DL23" s="23"/>
-      <c r="DM23" s="23"/>
-      <c r="DN23" s="23"/>
-      <c r="DO23" s="23"/>
-      <c r="DP23" s="23"/>
-      <c r="DQ23" s="23"/>
-      <c r="DR23" s="23"/>
-      <c r="DS23" s="23"/>
-      <c r="DT23" s="23"/>
-      <c r="DU23" s="23"/>
-      <c r="DV23" s="23"/>
-      <c r="DW23" s="23"/>
-      <c r="DX23" s="23"/>
-      <c r="DY23" s="23"/>
-      <c r="DZ23" s="23"/>
-      <c r="EA23" s="23"/>
-      <c r="EB23" s="23"/>
-      <c r="EC23" s="23"/>
-      <c r="ED23" s="23"/>
-      <c r="EE23" s="23"/>
-      <c r="EF23" s="23"/>
-      <c r="EG23" s="23"/>
-      <c r="EH23" s="23"/>
-      <c r="EI23" s="23"/>
-      <c r="EJ23" s="23"/>
-      <c r="EK23" s="23"/>
-      <c r="EL23" s="23"/>
-      <c r="EM23" s="23"/>
-      <c r="EN23" s="23"/>
-      <c r="EO23" s="23"/>
-      <c r="EP23" s="23"/>
-      <c r="EQ23" s="23"/>
-      <c r="ER23" s="23"/>
-      <c r="ES23" s="23"/>
-      <c r="ET23" s="23"/>
-      <c r="EU23" s="23"/>
-      <c r="EV23" s="23"/>
-      <c r="EW23" s="23"/>
-      <c r="EX23" s="23"/>
-      <c r="EY23" s="23"/>
-      <c r="EZ23" s="23"/>
-      <c r="FA23" s="23"/>
-      <c r="FB23" s="23"/>
-      <c r="FC23" s="23"/>
-      <c r="FD23" s="23"/>
-      <c r="FE23" s="23"/>
-      <c r="FF23" s="23"/>
-      <c r="FG23" s="23"/>
-      <c r="FH23" s="23"/>
-      <c r="FI23" s="23"/>
-      <c r="FJ23" s="23"/>
-      <c r="FK23" s="23"/>
-      <c r="FL23" s="23"/>
-      <c r="FM23" s="23"/>
-      <c r="FN23" s="23"/>
-      <c r="FO23" s="23"/>
-      <c r="FP23" s="23"/>
-      <c r="FQ23" s="23"/>
-      <c r="FR23" s="23"/>
-      <c r="FS23" s="23"/>
-      <c r="FT23" s="23"/>
-      <c r="FU23" s="23"/>
-      <c r="FV23" s="23"/>
-      <c r="FW23" s="23"/>
-      <c r="FX23" s="23"/>
-      <c r="FY23" s="23"/>
-      <c r="FZ23" s="23"/>
-      <c r="GA23" s="23"/>
-      <c r="GB23" s="23"/>
-      <c r="GC23" s="23"/>
-      <c r="GD23" s="23"/>
-      <c r="GE23" s="23"/>
-      <c r="GF23" s="23"/>
-      <c r="GG23" s="23"/>
-      <c r="GH23" s="23"/>
-    </row>
-    <row r="24" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="20"/>
+      <c r="CI23" s="20"/>
+      <c r="CJ23" s="20"/>
+      <c r="CK23" s="20"/>
+      <c r="CL23" s="20"/>
+      <c r="CM23" s="20"/>
+      <c r="CN23" s="20"/>
+      <c r="CO23" s="20"/>
+      <c r="CP23" s="20"/>
+      <c r="CQ23" s="20"/>
+      <c r="CR23" s="20"/>
+      <c r="CS23" s="20"/>
+      <c r="CT23" s="20"/>
+      <c r="CU23" s="20"/>
+      <c r="CV23" s="20"/>
+      <c r="CW23" s="20"/>
+      <c r="CX23" s="20"/>
+      <c r="CY23" s="20"/>
+      <c r="CZ23" s="20"/>
+      <c r="DA23" s="20"/>
+      <c r="DB23" s="20"/>
+      <c r="DC23" s="20"/>
+      <c r="DD23" s="20"/>
+      <c r="DE23" s="20"/>
+      <c r="DF23" s="20"/>
+      <c r="DG23" s="20"/>
+      <c r="DH23" s="20"/>
+      <c r="DI23" s="20"/>
+      <c r="DJ23" s="20"/>
+      <c r="DK23" s="20"/>
+      <c r="DL23" s="20"/>
+      <c r="DM23" s="20"/>
+      <c r="DN23" s="20"/>
+      <c r="DO23" s="20"/>
+      <c r="DP23" s="20"/>
+      <c r="DQ23" s="20"/>
+      <c r="DR23" s="20"/>
+      <c r="DS23" s="20"/>
+      <c r="DT23" s="20"/>
+      <c r="DU23" s="20"/>
+      <c r="DV23" s="20"/>
+      <c r="DW23" s="20"/>
+      <c r="DX23" s="20"/>
+      <c r="DY23" s="20"/>
+      <c r="DZ23" s="20"/>
+      <c r="EA23" s="20"/>
+      <c r="EB23" s="20"/>
+      <c r="EC23" s="20"/>
+      <c r="ED23" s="20"/>
+      <c r="EE23" s="20"/>
+      <c r="EF23" s="20"/>
+      <c r="EG23" s="20"/>
+      <c r="EH23" s="20"/>
+      <c r="EI23" s="20"/>
+      <c r="EJ23" s="20"/>
+      <c r="EK23" s="20"/>
+      <c r="EL23" s="20"/>
+      <c r="EM23" s="20"/>
+      <c r="EN23" s="20"/>
+      <c r="EO23" s="20"/>
+      <c r="EP23" s="20"/>
+      <c r="EQ23" s="20"/>
+      <c r="ER23" s="20"/>
+      <c r="ES23" s="20"/>
+      <c r="ET23" s="20"/>
+      <c r="EU23" s="20"/>
+      <c r="EV23" s="20"/>
+      <c r="EW23" s="20"/>
+      <c r="EX23" s="20"/>
+      <c r="EY23" s="20"/>
+      <c r="EZ23" s="20"/>
+      <c r="FA23" s="20"/>
+      <c r="FB23" s="20"/>
+      <c r="FC23" s="20"/>
+      <c r="FD23" s="20"/>
+      <c r="FE23" s="20"/>
+      <c r="FF23" s="20"/>
+      <c r="FG23" s="20"/>
+      <c r="FH23" s="20"/>
+      <c r="FI23" s="20"/>
+      <c r="FJ23" s="20"/>
+      <c r="FK23" s="20"/>
+      <c r="FL23" s="20"/>
+      <c r="FM23" s="20"/>
+      <c r="FN23" s="20"/>
+      <c r="FO23" s="20"/>
+      <c r="FP23" s="20"/>
+      <c r="FQ23" s="20"/>
+      <c r="FR23" s="20"/>
+      <c r="FS23" s="20"/>
+      <c r="FT23" s="20"/>
+      <c r="FU23" s="20"/>
+      <c r="FV23" s="20"/>
+      <c r="FW23" s="20"/>
+      <c r="FX23" s="20"/>
+      <c r="FY23" s="20"/>
+      <c r="FZ23" s="20"/>
+      <c r="GA23" s="20"/>
+      <c r="GB23" s="20"/>
+      <c r="GC23" s="20"/>
+      <c r="GD23" s="20"/>
+      <c r="GE23" s="20"/>
+      <c r="GF23" s="20"/>
+      <c r="GG23" s="20"/>
+      <c r="GH23" s="20"/>
+    </row>
+    <row r="24" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4906,7 +5049,7 @@
         <f>SUM(D24:AH24)</f>
         <v>0</v>
       </c>
-      <c r="AJ24" s="49"/>
+      <c r="AJ24" s="46"/>
       <c r="AK24" s="29"/>
       <c r="AL24" s="29"/>
       <c r="AM24" s="29"/>
@@ -5062,9 +5205,9 @@
       <c r="GG24" s="23"/>
       <c r="GH24" s="23"/>
     </row>
-    <row r="25" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -5103,7 +5246,7 @@
         <f>SUM(D25:AH25)</f>
         <v>0</v>
       </c>
-      <c r="AJ25" s="46"/>
+      <c r="AJ25" s="49"/>
       <c r="AK25" s="29"/>
       <c r="AL25" s="29"/>
       <c r="AM25" s="29"/>
@@ -5137,131 +5280,131 @@
       <c r="BO25" s="29"/>
       <c r="BP25" s="29"/>
       <c r="BQ25" s="29"/>
-      <c r="BR25" s="20"/>
-      <c r="BS25" s="20"/>
-      <c r="BT25" s="20"/>
-      <c r="BU25" s="20"/>
-      <c r="BV25" s="20"/>
-      <c r="BW25" s="20"/>
-      <c r="BX25" s="20"/>
-      <c r="BY25" s="20"/>
-      <c r="BZ25" s="20"/>
-      <c r="CA25" s="20"/>
-      <c r="CB25" s="20"/>
-      <c r="CC25" s="20"/>
-      <c r="CD25" s="20"/>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="20"/>
-      <c r="CH25" s="20"/>
-      <c r="CI25" s="20"/>
-      <c r="CJ25" s="20"/>
-      <c r="CK25" s="20"/>
-      <c r="CL25" s="20"/>
-      <c r="CM25" s="20"/>
-      <c r="CN25" s="20"/>
-      <c r="CO25" s="20"/>
-      <c r="CP25" s="20"/>
-      <c r="CQ25" s="20"/>
-      <c r="CR25" s="20"/>
-      <c r="CS25" s="20"/>
-      <c r="CT25" s="20"/>
-      <c r="CU25" s="20"/>
-      <c r="CV25" s="20"/>
-      <c r="CW25" s="20"/>
-      <c r="CX25" s="20"/>
-      <c r="CY25" s="20"/>
-      <c r="CZ25" s="20"/>
-      <c r="DA25" s="20"/>
-      <c r="DB25" s="20"/>
-      <c r="DC25" s="20"/>
-      <c r="DD25" s="20"/>
-      <c r="DE25" s="20"/>
-      <c r="DF25" s="20"/>
-      <c r="DG25" s="20"/>
-      <c r="DH25" s="20"/>
-      <c r="DI25" s="20"/>
-      <c r="DJ25" s="20"/>
-      <c r="DK25" s="20"/>
-      <c r="DL25" s="20"/>
-      <c r="DM25" s="20"/>
-      <c r="DN25" s="20"/>
-      <c r="DO25" s="20"/>
-      <c r="DP25" s="20"/>
-      <c r="DQ25" s="20"/>
-      <c r="DR25" s="20"/>
-      <c r="DS25" s="20"/>
-      <c r="DT25" s="20"/>
-      <c r="DU25" s="20"/>
-      <c r="DV25" s="20"/>
-      <c r="DW25" s="20"/>
-      <c r="DX25" s="20"/>
-      <c r="DY25" s="20"/>
-      <c r="DZ25" s="20"/>
-      <c r="EA25" s="20"/>
-      <c r="EB25" s="20"/>
-      <c r="EC25" s="20"/>
-      <c r="ED25" s="20"/>
-      <c r="EE25" s="20"/>
-      <c r="EF25" s="20"/>
-      <c r="EG25" s="20"/>
-      <c r="EH25" s="20"/>
-      <c r="EI25" s="20"/>
-      <c r="EJ25" s="20"/>
-      <c r="EK25" s="20"/>
-      <c r="EL25" s="20"/>
-      <c r="EM25" s="20"/>
-      <c r="EN25" s="20"/>
-      <c r="EO25" s="20"/>
-      <c r="EP25" s="20"/>
-      <c r="EQ25" s="20"/>
-      <c r="ER25" s="20"/>
-      <c r="ES25" s="20"/>
-      <c r="ET25" s="20"/>
-      <c r="EU25" s="20"/>
-      <c r="EV25" s="20"/>
-      <c r="EW25" s="20"/>
-      <c r="EX25" s="20"/>
-      <c r="EY25" s="20"/>
-      <c r="EZ25" s="20"/>
-      <c r="FA25" s="20"/>
-      <c r="FB25" s="20"/>
-      <c r="FC25" s="20"/>
-      <c r="FD25" s="20"/>
-      <c r="FE25" s="20"/>
-      <c r="FF25" s="20"/>
-      <c r="FG25" s="20"/>
-      <c r="FH25" s="20"/>
-      <c r="FI25" s="20"/>
-      <c r="FJ25" s="20"/>
-      <c r="FK25" s="20"/>
-      <c r="FL25" s="20"/>
-      <c r="FM25" s="20"/>
-      <c r="FN25" s="20"/>
-      <c r="FO25" s="20"/>
-      <c r="FP25" s="20"/>
-      <c r="FQ25" s="20"/>
-      <c r="FR25" s="20"/>
-      <c r="FS25" s="20"/>
-      <c r="FT25" s="20"/>
-      <c r="FU25" s="20"/>
-      <c r="FV25" s="20"/>
-      <c r="FW25" s="20"/>
-      <c r="FX25" s="20"/>
-      <c r="FY25" s="20"/>
-      <c r="FZ25" s="20"/>
-      <c r="GA25" s="20"/>
-      <c r="GB25" s="20"/>
-      <c r="GC25" s="20"/>
-      <c r="GD25" s="20"/>
-      <c r="GE25" s="20"/>
-      <c r="GF25" s="20"/>
-      <c r="GG25" s="20"/>
-      <c r="GH25" s="20"/>
-    </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.2">
+      <c r="BR25" s="23"/>
+      <c r="BS25" s="23"/>
+      <c r="BT25" s="23"/>
+      <c r="BU25" s="23"/>
+      <c r="BV25" s="23"/>
+      <c r="BW25" s="23"/>
+      <c r="BX25" s="23"/>
+      <c r="BY25" s="23"/>
+      <c r="BZ25" s="23"/>
+      <c r="CA25" s="23"/>
+      <c r="CB25" s="23"/>
+      <c r="CC25" s="23"/>
+      <c r="CD25" s="23"/>
+      <c r="CE25" s="23"/>
+      <c r="CF25" s="23"/>
+      <c r="CG25" s="23"/>
+      <c r="CH25" s="23"/>
+      <c r="CI25" s="23"/>
+      <c r="CJ25" s="23"/>
+      <c r="CK25" s="23"/>
+      <c r="CL25" s="23"/>
+      <c r="CM25" s="23"/>
+      <c r="CN25" s="23"/>
+      <c r="CO25" s="23"/>
+      <c r="CP25" s="23"/>
+      <c r="CQ25" s="23"/>
+      <c r="CR25" s="23"/>
+      <c r="CS25" s="23"/>
+      <c r="CT25" s="23"/>
+      <c r="CU25" s="23"/>
+      <c r="CV25" s="23"/>
+      <c r="CW25" s="23"/>
+      <c r="CX25" s="23"/>
+      <c r="CY25" s="23"/>
+      <c r="CZ25" s="23"/>
+      <c r="DA25" s="23"/>
+      <c r="DB25" s="23"/>
+      <c r="DC25" s="23"/>
+      <c r="DD25" s="23"/>
+      <c r="DE25" s="23"/>
+      <c r="DF25" s="23"/>
+      <c r="DG25" s="23"/>
+      <c r="DH25" s="23"/>
+      <c r="DI25" s="23"/>
+      <c r="DJ25" s="23"/>
+      <c r="DK25" s="23"/>
+      <c r="DL25" s="23"/>
+      <c r="DM25" s="23"/>
+      <c r="DN25" s="23"/>
+      <c r="DO25" s="23"/>
+      <c r="DP25" s="23"/>
+      <c r="DQ25" s="23"/>
+      <c r="DR25" s="23"/>
+      <c r="DS25" s="23"/>
+      <c r="DT25" s="23"/>
+      <c r="DU25" s="23"/>
+      <c r="DV25" s="23"/>
+      <c r="DW25" s="23"/>
+      <c r="DX25" s="23"/>
+      <c r="DY25" s="23"/>
+      <c r="DZ25" s="23"/>
+      <c r="EA25" s="23"/>
+      <c r="EB25" s="23"/>
+      <c r="EC25" s="23"/>
+      <c r="ED25" s="23"/>
+      <c r="EE25" s="23"/>
+      <c r="EF25" s="23"/>
+      <c r="EG25" s="23"/>
+      <c r="EH25" s="23"/>
+      <c r="EI25" s="23"/>
+      <c r="EJ25" s="23"/>
+      <c r="EK25" s="23"/>
+      <c r="EL25" s="23"/>
+      <c r="EM25" s="23"/>
+      <c r="EN25" s="23"/>
+      <c r="EO25" s="23"/>
+      <c r="EP25" s="23"/>
+      <c r="EQ25" s="23"/>
+      <c r="ER25" s="23"/>
+      <c r="ES25" s="23"/>
+      <c r="ET25" s="23"/>
+      <c r="EU25" s="23"/>
+      <c r="EV25" s="23"/>
+      <c r="EW25" s="23"/>
+      <c r="EX25" s="23"/>
+      <c r="EY25" s="23"/>
+      <c r="EZ25" s="23"/>
+      <c r="FA25" s="23"/>
+      <c r="FB25" s="23"/>
+      <c r="FC25" s="23"/>
+      <c r="FD25" s="23"/>
+      <c r="FE25" s="23"/>
+      <c r="FF25" s="23"/>
+      <c r="FG25" s="23"/>
+      <c r="FH25" s="23"/>
+      <c r="FI25" s="23"/>
+      <c r="FJ25" s="23"/>
+      <c r="FK25" s="23"/>
+      <c r="FL25" s="23"/>
+      <c r="FM25" s="23"/>
+      <c r="FN25" s="23"/>
+      <c r="FO25" s="23"/>
+      <c r="FP25" s="23"/>
+      <c r="FQ25" s="23"/>
+      <c r="FR25" s="23"/>
+      <c r="FS25" s="23"/>
+      <c r="FT25" s="23"/>
+      <c r="FU25" s="23"/>
+      <c r="FV25" s="23"/>
+      <c r="FW25" s="23"/>
+      <c r="FX25" s="23"/>
+      <c r="FY25" s="23"/>
+      <c r="FZ25" s="23"/>
+      <c r="GA25" s="23"/>
+      <c r="GB25" s="23"/>
+      <c r="GC25" s="23"/>
+      <c r="GD25" s="23"/>
+      <c r="GE25" s="23"/>
+      <c r="GF25" s="23"/>
+      <c r="GG25" s="23"/>
+      <c r="GH25" s="23"/>
+    </row>
+    <row r="26" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -5300,7 +5443,7 @@
         <f>SUM(D26:AH26)</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="49"/>
+      <c r="AJ26" s="46"/>
       <c r="AK26" s="29"/>
       <c r="AL26" s="29"/>
       <c r="AM26" s="29"/>
@@ -5334,13 +5477,134 @@
       <c r="BO26" s="29"/>
       <c r="BP26" s="29"/>
       <c r="BQ26" s="29"/>
-    </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="20"/>
+      <c r="CI26" s="20"/>
+      <c r="CJ26" s="20"/>
+      <c r="CK26" s="20"/>
+      <c r="CL26" s="20"/>
+      <c r="CM26" s="20"/>
+      <c r="CN26" s="20"/>
+      <c r="CO26" s="20"/>
+      <c r="CP26" s="20"/>
+      <c r="CQ26" s="20"/>
+      <c r="CR26" s="20"/>
+      <c r="CS26" s="20"/>
+      <c r="CT26" s="20"/>
+      <c r="CU26" s="20"/>
+      <c r="CV26" s="20"/>
+      <c r="CW26" s="20"/>
+      <c r="CX26" s="20"/>
+      <c r="CY26" s="20"/>
+      <c r="CZ26" s="20"/>
+      <c r="DA26" s="20"/>
+      <c r="DB26" s="20"/>
+      <c r="DC26" s="20"/>
+      <c r="DD26" s="20"/>
+      <c r="DE26" s="20"/>
+      <c r="DF26" s="20"/>
+      <c r="DG26" s="20"/>
+      <c r="DH26" s="20"/>
+      <c r="DI26" s="20"/>
+      <c r="DJ26" s="20"/>
+      <c r="DK26" s="20"/>
+      <c r="DL26" s="20"/>
+      <c r="DM26" s="20"/>
+      <c r="DN26" s="20"/>
+      <c r="DO26" s="20"/>
+      <c r="DP26" s="20"/>
+      <c r="DQ26" s="20"/>
+      <c r="DR26" s="20"/>
+      <c r="DS26" s="20"/>
+      <c r="DT26" s="20"/>
+      <c r="DU26" s="20"/>
+      <c r="DV26" s="20"/>
+      <c r="DW26" s="20"/>
+      <c r="DX26" s="20"/>
+      <c r="DY26" s="20"/>
+      <c r="DZ26" s="20"/>
+      <c r="EA26" s="20"/>
+      <c r="EB26" s="20"/>
+      <c r="EC26" s="20"/>
+      <c r="ED26" s="20"/>
+      <c r="EE26" s="20"/>
+      <c r="EF26" s="20"/>
+      <c r="EG26" s="20"/>
+      <c r="EH26" s="20"/>
+      <c r="EI26" s="20"/>
+      <c r="EJ26" s="20"/>
+      <c r="EK26" s="20"/>
+      <c r="EL26" s="20"/>
+      <c r="EM26" s="20"/>
+      <c r="EN26" s="20"/>
+      <c r="EO26" s="20"/>
+      <c r="EP26" s="20"/>
+      <c r="EQ26" s="20"/>
+      <c r="ER26" s="20"/>
+      <c r="ES26" s="20"/>
+      <c r="ET26" s="20"/>
+      <c r="EU26" s="20"/>
+      <c r="EV26" s="20"/>
+      <c r="EW26" s="20"/>
+      <c r="EX26" s="20"/>
+      <c r="EY26" s="20"/>
+      <c r="EZ26" s="20"/>
+      <c r="FA26" s="20"/>
+      <c r="FB26" s="20"/>
+      <c r="FC26" s="20"/>
+      <c r="FD26" s="20"/>
+      <c r="FE26" s="20"/>
+      <c r="FF26" s="20"/>
+      <c r="FG26" s="20"/>
+      <c r="FH26" s="20"/>
+      <c r="FI26" s="20"/>
+      <c r="FJ26" s="20"/>
+      <c r="FK26" s="20"/>
+      <c r="FL26" s="20"/>
+      <c r="FM26" s="20"/>
+      <c r="FN26" s="20"/>
+      <c r="FO26" s="20"/>
+      <c r="FP26" s="20"/>
+      <c r="FQ26" s="20"/>
+      <c r="FR26" s="20"/>
+      <c r="FS26" s="20"/>
+      <c r="FT26" s="20"/>
+      <c r="FU26" s="20"/>
+      <c r="FV26" s="20"/>
+      <c r="FW26" s="20"/>
+      <c r="FX26" s="20"/>
+      <c r="FY26" s="20"/>
+      <c r="FZ26" s="20"/>
+      <c r="GA26" s="20"/>
+      <c r="GB26" s="20"/>
+      <c r="GC26" s="20"/>
+      <c r="GD26" s="20"/>
+      <c r="GE26" s="20"/>
+      <c r="GF26" s="20"/>
+      <c r="GG26" s="20"/>
+      <c r="GH26" s="20"/>
+    </row>
+    <row r="27" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
       <c r="F27" s="61"/>
@@ -5372,10 +5636,11 @@
       <c r="AF27" s="61"/>
       <c r="AG27" s="61"/>
       <c r="AH27" s="61"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="49" t="s">
-        <v>73</v>
-      </c>
+      <c r="AI27" s="57">
+        <f>SUM(D27:AH27)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="49"/>
       <c r="AK27" s="29"/>
       <c r="AL27" s="29"/>
       <c r="AM27" s="29"/>
@@ -5410,9 +5675,9 @@
       <c r="BP27" s="29"/>
       <c r="BQ27" s="29"/>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -5447,11 +5712,8 @@
       <c r="AF28" s="61"/>
       <c r="AG28" s="61"/>
       <c r="AH28" s="61"/>
-      <c r="AI28" s="57">
-        <f>SUM(D28:AH28)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="46"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="49"/>
       <c r="AK28" s="29"/>
       <c r="AL28" s="29"/>
       <c r="AM28" s="29"/>
@@ -5486,9 +5748,9 @@
       <c r="BP28" s="29"/>
       <c r="BQ28" s="29"/>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -5527,7 +5789,7 @@
         <f>SUM(D29:AH29)</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="49"/>
+      <c r="AJ29" s="46"/>
       <c r="AK29" s="29"/>
       <c r="AL29" s="29"/>
       <c r="AM29" s="29"/>
@@ -5562,9 +5824,9 @@
       <c r="BP29" s="29"/>
       <c r="BQ29" s="29"/>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -5603,7 +5865,7 @@
         <f>SUM(D30:AH30)</f>
         <v>0</v>
       </c>
-      <c r="AJ30" s="46"/>
+      <c r="AJ30" s="49"/>
       <c r="AK30" s="29"/>
       <c r="AL30" s="29"/>
       <c r="AM30" s="29"/>
@@ -5638,7 +5900,7 @@
       <c r="BP30" s="29"/>
       <c r="BQ30" s="29"/>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -5714,141 +5976,48 @@
       <c r="BP31" s="29"/>
       <c r="BQ31" s="29"/>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="59">
-        <f t="shared" ref="D32:H32" si="6">SUM(D22:D31)</f>
-        <v>3</v>
-      </c>
-      <c r="E32" s="59">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F32" s="59">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G32" s="59">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H32" s="59">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="I32" s="59">
-        <f>SUM(I22:I31)</f>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="57">
+        <f>SUM(D32:AH32)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="59">
-        <f t="shared" ref="J32:O32" si="7">SUM(J22:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="59">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L32" s="59">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="M32" s="59">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="N32" s="59">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="O32" s="59">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="P32" s="59">
-        <f>SUM(P22:P31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="59">
-        <f t="shared" ref="Q32:V32" si="8">SUM(Q22:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="59">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S32" s="59">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="T32" s="59">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="U32" s="59">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="V32" s="59">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="59">
-        <f>SUM(W22:W31)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="59">
-        <f t="shared" ref="X32:AC32" si="9">SUM(X22:X31)</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="59">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z32" s="59">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AA32" s="59">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AB32" s="59">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC32" s="59">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AD32" s="59">
-        <f>SUM(AD22:AD31)</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="59">
-        <f t="shared" ref="AE32:AH32" si="10">SUM(AE22:AE31)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="59">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="59">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH32" s="59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="60">
-        <f t="shared" ref="AI32" si="11">SUM(AI22:AI31)</f>
-        <v>67</v>
-      </c>
-      <c r="AJ32" s="27"/>
+      <c r="AJ32" s="46"/>
       <c r="AK32" s="29"/>
       <c r="AL32" s="29"/>
       <c r="AM32" s="29"/>
@@ -5883,64 +6052,186 @@
       <c r="BP32" s="29"/>
       <c r="BQ32" s="29"/>
     </row>
-    <row r="33" spans="1:52" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="59">
+        <f t="shared" ref="D33:H33" si="4">SUM(D23:D32)</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="59">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="59">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G33" s="59">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H33" s="59">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="59">
+        <f>SUM(I23:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="59">
+        <f t="shared" ref="J33:O33" si="5">SUM(J23:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="59">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L33" s="59">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="M33" s="59">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N33" s="59">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O33" s="59">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P33" s="59">
+        <f>SUM(P23:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="59">
+        <f t="shared" ref="Q33:V33" si="6">SUM(Q23:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="59">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S33" s="59">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="T33" s="59">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="U33" s="59">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V33" s="59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W33" s="59">
+        <f>SUM(W23:W32)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="59">
+        <f t="shared" ref="X33:AC33" si="7">SUM(X23:X32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="59">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z33" s="59">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AA33" s="59">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AB33" s="59">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC33" s="59">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AD33" s="59">
+        <f>SUM(AD23:AD32)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="59">
+        <f t="shared" ref="AE33:AH33" si="8">SUM(AE23:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="59">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AG33" s="59">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AH33" s="59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="60">
+        <f t="shared" ref="AI33" si="9">SUM(AI23:AI32)</f>
+        <v>118</v>
+      </c>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="29"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="29"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="29"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="29"/>
+      <c r="BB33" s="29"/>
+      <c r="BC33" s="29"/>
+      <c r="BD33" s="29"/>
+      <c r="BE33" s="29"/>
+      <c r="BF33" s="29"/>
+      <c r="BG33" s="29"/>
+      <c r="BH33" s="29"/>
+      <c r="BI33" s="29"/>
+      <c r="BJ33" s="29"/>
+      <c r="BK33" s="29"/>
+      <c r="BL33" s="29"/>
+      <c r="BM33" s="29"/>
+      <c r="BN33" s="29"/>
+      <c r="BO33" s="29"/>
+      <c r="BP33" s="29"/>
+      <c r="BQ33" s="29"/>
+    </row>
+    <row r="34" spans="1:69" s="29" customFormat="1" ht="13.3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="30"/>
-      <c r="AZ33" s="52"/>
-    </row>
-    <row r="34" spans="1:52" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
-      <c r="F34" s="62" t="s">
-        <v>93</v>
-      </c>
+      <c r="F34" s="62"/>
       <c r="G34" s="62"/>
-      <c r="H34" s="62" t="s">
-        <v>26</v>
-      </c>
+      <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
       <c r="K34" s="62"/>
@@ -5954,6 +6245,7 @@
       <c r="S34" s="62"/>
       <c r="T34" s="62"/>
       <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
       <c r="W34" s="62"/>
       <c r="X34" s="62"/>
       <c r="Y34" s="62"/>
@@ -5961,37 +6253,31 @@
       <c r="AA34" s="62"/>
       <c r="AB34" s="62"/>
       <c r="AC34" s="62"/>
-      <c r="AD34" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE34" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="63" t="s">
-        <v>73</v>
-      </c>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="62"/>
       <c r="AJ34" s="30"/>
       <c r="AZ34" s="52"/>
     </row>
-    <row r="35" spans="1:52" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" s="29" customFormat="1" ht="10.55" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
       <c r="F35" s="62" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G35" s="62"/>
       <c r="H35" s="62" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I35" s="62"/>
       <c r="J35" s="62"/>
@@ -6013,31 +6299,37 @@
       <c r="AA35" s="62"/>
       <c r="AB35" s="62"/>
       <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="62"/>
+      <c r="AD35" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE35" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="63" t="s">
+        <v>73</v>
+      </c>
       <c r="AJ35" s="30"/>
       <c r="AZ35" s="52"/>
     </row>
-    <row r="36" spans="1:52" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" s="29" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
       <c r="F36" s="62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" s="62"/>
       <c r="H36" s="62" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
@@ -6059,39 +6351,33 @@
       <c r="AA36" s="62"/>
       <c r="AB36" s="62"/>
       <c r="AC36" s="62"/>
-      <c r="AD36" s="67" t="s">
-        <v>70</v>
-      </c>
+      <c r="AD36" s="62"/>
       <c r="AE36" s="62"/>
       <c r="AF36" s="62"/>
       <c r="AG36" s="62"/>
       <c r="AH36" s="62"/>
-      <c r="AI36" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ36" s="70" t="s">
-        <v>69</v>
-      </c>
+      <c r="AI36" s="62"/>
+      <c r="AJ36" s="30"/>
       <c r="AZ36" s="52"/>
     </row>
-    <row r="37" spans="1:52" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>23</v>
+    <row r="37" spans="1:69" s="29" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="64"/>
+        <v>95</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="62"/>
       <c r="J37" s="62"/>
       <c r="K37" s="62"/>
       <c r="L37" s="62"/>
@@ -6111,72 +6397,83 @@
       <c r="AA37" s="62"/>
       <c r="AB37" s="62"/>
       <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
+      <c r="AD37" s="67" t="s">
+        <v>70</v>
+      </c>
       <c r="AE37" s="62"/>
       <c r="AF37" s="62"/>
       <c r="AG37" s="62"/>
       <c r="AH37" s="62"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="30"/>
-    </row>
-    <row r="38" spans="1:52" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>100</v>
+      <c r="AI37" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ37" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ37" s="52"/>
+    </row>
+    <row r="38" spans="1:69" s="29" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
       <c r="F38" s="64" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="64" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="65" t="s">
-        <v>73</v>
-      </c>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62"/>
+      <c r="AH38" s="62"/>
+      <c r="AI38" s="62"/>
       <c r="AJ38" s="30"/>
     </row>
-    <row r="39" spans="1:52" s="29" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+    <row r="39" spans="1:69" s="29" customFormat="1" ht="10.55" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="C39" s="30"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
+      <c r="F39" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
+      <c r="H39" s="64" t="s">
+        <v>28</v>
+      </c>
       <c r="I39" s="64"/>
       <c r="J39" s="64"/>
       <c r="K39" s="64"/>
@@ -6197,18 +6494,22 @@
       <c r="AA39" s="64"/>
       <c r="AB39" s="64"/>
       <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
+      <c r="AD39" s="68" t="s">
+        <v>71</v>
+      </c>
       <c r="AE39" s="64"/>
       <c r="AF39" s="64"/>
       <c r="AG39" s="64"/>
       <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
+      <c r="AI39" s="65" t="s">
+        <v>73</v>
+      </c>
       <c r="AJ39" s="30"/>
     </row>
-    <row r="40" spans="1:52" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+    <row r="40" spans="1:69" s="29" customFormat="1" ht="10.55" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -6234,57 +6535,56 @@
       <c r="AA40" s="64"/>
       <c r="AB40" s="64"/>
       <c r="AC40" s="64"/>
-      <c r="AD40" s="68" t="s">
-        <v>72</v>
-      </c>
+      <c r="AD40" s="64"/>
       <c r="AE40" s="64"/>
       <c r="AF40" s="64"/>
       <c r="AG40" s="64"/>
       <c r="AH40" s="64"/>
-      <c r="AI40" s="65" t="s">
-        <v>73</v>
-      </c>
+      <c r="AI40" s="64"/>
       <c r="AJ40" s="30"/>
     </row>
-    <row r="41" spans="1:52" s="29" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" s="29" customFormat="1" ht="13.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="64"/>
+      <c r="AI41" s="65" t="s">
+        <v>73</v>
+      </c>
       <c r="AJ41" s="30"/>
     </row>
-    <row r="42" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" s="29" customFormat="1" ht="13.3" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -6322,7 +6622,7 @@
       <c r="AI42" s="30"/>
       <c r="AJ42" s="30"/>
     </row>
-    <row r="43" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -6360,7 +6660,7 @@
       <c r="AI43" s="30"/>
       <c r="AJ43" s="30"/>
     </row>
-    <row r="44" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -6398,169 +6698,207 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="30"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C45"/>
-      <c r="AI45" s="1"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+    </row>
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C46"/>
       <c r="AI46" s="1"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C47"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C49"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C51"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C52"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C53"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="AI55" s="1"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="AI56" s="1"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="AI59" s="1"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="AI60" s="1"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="AI61" s="1"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="AI62" s="1"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="AI63" s="1"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="AI65" s="1"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="AI66" s="1"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="AI67" s="1"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="AI68" s="1"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="AI70" s="1"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="AI71" s="1"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="AI72" s="1"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="AI73" s="1"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="AI74" s="1"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="AI75" s="1"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C76"/>
       <c r="AI76" s="1"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="AI77" s="1"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C78"/>
       <c r="AI78" s="1"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C79"/>
       <c r="AI79" s="1"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C80"/>
       <c r="AI80" s="1"/>
     </row>
-    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C81"/>
       <c r="AI81" s="1"/>
     </row>
-    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C82"/>
       <c r="AI82" s="1"/>
     </row>
-    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C83"/>
       <c r="AI83" s="1"/>
     </row>
-    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C84"/>
       <c r="AI84" s="1"/>
     </row>
-    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C85"/>
       <c r="AI85" s="1"/>
+    </row>
+    <row r="86" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C86"/>
+      <c r="AI86" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
